--- a/data/income_statement/2digits/size/15_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/15_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>15-Manufacture of leather and related products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>15-Manufacture of leather and related products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,644 +841,729 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1175148.24804</v>
+        <v>1228383.21704</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1411202.0168</v>
+        <v>1485538.44373</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1585644.47186</v>
+        <v>1679345.7892</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1933016.89827</v>
+        <v>2051653.20462</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2440255.31613</v>
+        <v>2608789.86726</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2500258.28173</v>
+        <v>2727854.72234</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2672504.41056</v>
+        <v>3062942.83803</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2821486.14552</v>
+        <v>3220560.58977</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2987525.18596</v>
+        <v>3367321.75113</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6035437.69813</v>
+        <v>6385462.8272</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6564093.96984</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7112520.629400001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6917194.577</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1007172.21547</v>
+        <v>1045363.68471</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1228876.63592</v>
+        <v>1293148.65401</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1421234.65948</v>
+        <v>1501530.74541</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1698645.83819</v>
+        <v>1809897.59641</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2176668.28478</v>
+        <v>2318758.95921</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2222030.29939</v>
+        <v>2421400.63331</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2394956.731</v>
+        <v>2735883.552</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2522053.32574</v>
+        <v>2875834.21397</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2674027.98997</v>
+        <v>3013412.9192</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5160124.06834</v>
+        <v>5385145.25562</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5592821.204899999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6042231.30121</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5818297.526</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>157382.78236</v>
+        <v>172792.02663</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>170277.74064</v>
+        <v>180668.67258</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>155735.08476</v>
+        <v>168021.74745</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>224928.11298</v>
+        <v>231086.54501</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>244238.25899</v>
+        <v>269033.82493</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>262195.22647</v>
+        <v>290730.19437</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>262144.69939</v>
+        <v>305271.35757</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>279991.7056</v>
+        <v>319968.10283</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>286914.37185</v>
+        <v>322992.41151</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>816656.9361800001</v>
+        <v>944080.7066799999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>893282.9027699999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>994281.95345</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1015483.694</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>10593.25021</v>
+        <v>10227.5057</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>12047.64024</v>
+        <v>11721.11714</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>8674.727620000001</v>
+        <v>9793.296339999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>9442.947099999999</v>
+        <v>10669.0632</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>19348.77236</v>
+        <v>20997.08312</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>16032.75587</v>
+        <v>15723.89466</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>15402.98017</v>
+        <v>21787.92846</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>19441.11418</v>
+        <v>24758.27297</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>26582.82414</v>
+        <v>30916.42042</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>58656.69361</v>
+        <v>56236.86490000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>77989.86217000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>76007.37474000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>83413.357</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>16622.07041</v>
+        <v>16768.59912</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>19030.67094</v>
+        <v>19561.88512</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>23115.34224</v>
+        <v>24740.88987</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>24593.44904</v>
+        <v>26250.88267</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>34120.63299</v>
+        <v>35831.35552</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>33717.478</v>
+        <v>37264.41043</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>34884.18188</v>
+        <v>52789.22911</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>31352.41055</v>
+        <v>39106.90839</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>32780.52413</v>
+        <v>37613.62031000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>114851.49452</v>
+        <v>117665.4061</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>106479.73805</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>118989.24244</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>117905.702</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>14792.35123</v>
+        <v>14985.6003</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>17055.50288</v>
+        <v>17620.11899</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>21026.59521</v>
+        <v>22695.0935</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>22532.68373</v>
+        <v>24147.90799</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>31893.1773</v>
+        <v>33280.0848</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>30718.21498</v>
+        <v>34038.41069</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>29894.27431</v>
+        <v>36651.99557</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>29593.58157</v>
+        <v>35848.29146</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>29576.80029</v>
+        <v>33907.09866</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>100839.40745</v>
+        <v>107296.19029</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>87225.00486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>98290.43565</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>106993.52</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1215.29116</v>
+        <v>1167.84914</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>920.7599099999999</v>
+        <v>895.11864</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1115.64272</v>
+        <v>1080.404</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1085.27975</v>
+        <v>1095.51799</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1458.40217</v>
+        <v>1491.95846</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2282.69678</v>
+        <v>2376.79453</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3549.60237</v>
+        <v>4681.668189999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1068.38453</v>
+        <v>2397.74118</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1574.88605</v>
+        <v>1983.3107</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>8635.498</v>
+        <v>4989.08816</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>6856.43558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7870.89667</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4676.902</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>614.4280200000001</v>
+        <v>615.1496800000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1054.40815</v>
+        <v>1046.64749</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>973.1043099999999</v>
+        <v>965.39237</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>975.48556</v>
+        <v>1007.45669</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>769.05352</v>
+        <v>1059.31226</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>716.56624</v>
+        <v>849.2052100000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1440.3052</v>
+        <v>11455.56535</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>690.44445</v>
+        <v>860.87575</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1628.83779</v>
+        <v>1723.21095</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>5376.58907</v>
+        <v>5380.12765</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>12398.29761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12827.91012</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6235.28</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1158526.17763</v>
+        <v>1211614.61792</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1392171.34586</v>
+        <v>1465976.55861</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1562529.12962</v>
+        <v>1654604.89933</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1908423.44923</v>
+        <v>2025402.32195</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2406134.68314</v>
+        <v>2572958.51174</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2466540.80373</v>
+        <v>2690590.31191</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2637620.22868</v>
+        <v>3010153.60892</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2790133.73497</v>
+        <v>3181453.68138</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2954744.66183</v>
+        <v>3329708.13082</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5920586.203609999</v>
+        <v>6267797.4211</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6457614.231790001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6993531.38696</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6799288.875</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1002429.65284</v>
+        <v>1054570.21533</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1210292.86531</v>
+        <v>1277491.74353</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1370877.08425</v>
+        <v>1455529.89037</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1683217.33067</v>
+        <v>1785913.02218</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2123405.36755</v>
+        <v>2272740.96237</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2185188.11549</v>
+        <v>2385424.00115</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2326272.03459</v>
+        <v>2638503.0273</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2466018.84874</v>
+        <v>2811003.34227</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2598647.80554</v>
+        <v>2930808.60573</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5245726.12015</v>
+        <v>5551885.679380001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5720311.59421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6165555.56397</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5995000.455</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>781538.3324300001</v>
+        <v>831311.3194200001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>970342.41275</v>
+        <v>1023483.3914</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1099034.53807</v>
+        <v>1175293.93274</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1343635.78245</v>
+        <v>1448535.90653</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1745386.5834</v>
+        <v>1870291.0547</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1779588.85719</v>
+        <v>1947801.90379</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1881234.59964</v>
+        <v>2153615.20529</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1949521.33661</v>
+        <v>2240286.99805</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2050176.05002</v>
+        <v>2323370.74098</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4261122.58208</v>
+        <v>4523609.33191</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4582795.202110001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4953734.80138</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4752138.371</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>192277.74983</v>
+        <v>195581.74662</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>210888.08588</v>
+        <v>225426.69418</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>237676.76189</v>
+        <v>245442.62786</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>294322.64435</v>
+        <v>294173.99517</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>323621.15593</v>
+        <v>346851.54379</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>345524.37002</v>
+        <v>377884.00124</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>398660.24549</v>
+        <v>435479.59877</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>473693.0350800001</v>
+        <v>520080.57611</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>494473.84198</v>
+        <v>547317.50605</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>901611.892</v>
+        <v>945376.35705</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1018953.262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1090790.1597</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1135310.907</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>27318.79064</v>
+        <v>26362.56076</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>27164.67167</v>
+        <v>26327.21077</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>33212.61178</v>
+        <v>33706.33825</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>44052.90153</v>
+        <v>41902.89811</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>52989.01049</v>
+        <v>54311.69997</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>55678.14928</v>
+        <v>54836.77178999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>41578.07193999999</v>
+        <v>42472.22415</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>36355.92402000001</v>
+        <v>42030.72376</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>48851.39822</v>
+        <v>50467.99265</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>73377.8609</v>
+        <v>75003.15493</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>99969.41081</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>102811.69838</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>92047.42</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1294.77994</v>
+        <v>1314.58853</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1897.69501</v>
+        <v>2254.44718</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>953.17251</v>
+        <v>1086.99152</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1206.00234</v>
+        <v>1300.22237</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1408.61773</v>
+        <v>1286.66391</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>4396.739</v>
+        <v>4901.32433</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4799.117520000001</v>
+        <v>6935.99909</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6448.553029999999</v>
+        <v>8605.04435</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>5146.51532</v>
+        <v>9652.366050000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>9613.785169999999</v>
+        <v>7896.83549</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>18593.71929</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18218.90451</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>15503.757</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>156096.52479</v>
+        <v>157044.40259</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>181878.48055</v>
+        <v>188484.81508</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>191652.04537</v>
+        <v>199075.00896</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>225206.11856</v>
+        <v>239489.29977</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>282729.31559</v>
+        <v>300217.54937</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>281352.68824</v>
+        <v>305166.31076</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>311348.19409</v>
+        <v>371650.58162</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>324114.88623</v>
+        <v>370450.33911</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>356096.85629</v>
+        <v>398899.52509</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>674860.08346</v>
+        <v>715911.74172</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>737302.6375800001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>827975.82299</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>804288.42</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>99893.11622999999</v>
+        <v>99950.44207999999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>108412.11457</v>
+        <v>110809.59269</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>124021.23196</v>
+        <v>123484.27475</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>148053.52731</v>
+        <v>150740.57572</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>185890.18082</v>
+        <v>191421.16966</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>181666.76679</v>
+        <v>189287.79278</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>195051.74601</v>
+        <v>217186.03558</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>211166.35716</v>
+        <v>230614.27135</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>229204.43769</v>
+        <v>247607.43958</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>400011.78669</v>
+        <v>411274.86968</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>416708.48989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>465914.12254</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>436915.848</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>166.83545</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>60.63686</v>
+        <v>89.27664</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>121.68395</v>
@@ -1586,232 +1572,262 @@
         <v>264.29423</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>554.4153100000001</v>
+        <v>561.0386999999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>441.28608</v>
+        <v>387.83175</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>322.43711</v>
+        <v>1239.73433</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>656.40487</v>
+        <v>627.90584</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>50.66464999999999</v>
+        <v>1138.09971</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>914.82599</v>
+        <v>1501.8829</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>203.79809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>223.96839</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>104.668</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>26237.07126</v>
+        <v>26491.56823</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>28473.51393</v>
+        <v>29640.58552</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>32844.33556</v>
+        <v>33641.63893</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>39683.44931</v>
+        <v>41685.86651000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>47720.09824</v>
+        <v>50210.24654</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>45994.36999</v>
+        <v>50095.41491</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>50210.18279</v>
+        <v>56473.01134</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>54984.93601999999</v>
+        <v>61784.1566</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>58201.01812000001</v>
+        <v>65983.26364999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>119219.75596</v>
+        <v>125755.64153</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>128214.20761</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>158312.80403</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>130552.919</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>73489.20951999999</v>
+        <v>73292.0384</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>79877.96378000001</v>
+        <v>81079.73053</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>91055.21245000001</v>
+        <v>89720.95187</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>108105.78377</v>
+        <v>108790.41498</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>137615.66727</v>
+        <v>140649.88442</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>135231.11072</v>
+        <v>138804.54612</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>144519.12611</v>
+        <v>159473.28991</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>155525.01627</v>
+        <v>168202.20891</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>170952.75492</v>
+        <v>180486.07622</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>279877.20474</v>
+        <v>284017.34525</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>288290.48419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>307377.35012</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>306258.261</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>56203.40856</v>
+        <v>57093.96051</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>73466.36597999999</v>
+        <v>77675.22239</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>67630.81341</v>
+        <v>75590.73421</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>77152.59125</v>
+        <v>88748.72404999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>96839.13476999999</v>
+        <v>108796.37971</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>99685.92145000001</v>
+        <v>115878.51798</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>116296.44808</v>
+        <v>154464.54604</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>112948.52907</v>
+        <v>139836.06776</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>126892.4186</v>
+        <v>151292.08551</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>274848.29677</v>
+        <v>304636.87204</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>320594.14769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>362061.70045</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>367372.572</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>15229.30763</v>
+        <v>20257.76566</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>14455.3364</v>
+        <v>17080.30781</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>18322.89164</v>
+        <v>18546.66487</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>12178.99312</v>
+        <v>10957.91541</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>26137.81343</v>
+        <v>32064.96996</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>23755.3281</v>
+        <v>30261.09539</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>40591.35268</v>
+        <v>77453.68638</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>36875.2425</v>
+        <v>90945.47659000001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>28157.19044</v>
+        <v>41259.57683</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>190286.4641</v>
+        <v>350326.40699</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>102348.91067</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>170391.36818</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>279270.168</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>626.61682</v>
+        <v>817.27161</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>320.11823</v>
+        <v>488.9948</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>344.34858</v>
+        <v>308.52895</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>322.56905</v>
+        <v>192.50091</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>510.3292300000001</v>
+        <v>239.04409</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1223.13021</v>
+        <v>555.2338300000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>608.1583000000001</v>
+        <v>415.05409</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>741.9281099999999</v>
+        <v>392.69418</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>730.9471</v>
+        <v>354.3633400000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1855.77038</v>
+        <v>1468.59125</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2343.12268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1565.30892</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1852.971</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>15.3742</v>
+        <v>51.88402000000001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>0.54223</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
@@ -1840,59 +1856,69 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1121.53618</v>
+        <v>764.1710400000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1133.9918</v>
+        <v>1326.60898</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1362.65933</v>
+        <v>1001.25923</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1723.44976</v>
+        <v>1530.71904</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1510.24502</v>
+        <v>1678.67004</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1447.20858</v>
+        <v>1711.44014</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2890.69097</v>
+        <v>3955.95838</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2892.591809999999</v>
+        <v>3392.77529</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2606.38291</v>
+        <v>3134.6143</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>6475.32461</v>
+        <v>8563.42094</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6466.11392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>11067.19803</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>8496.049000000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>528.3945500000001</v>
+        <v>528.51256</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>202.82749</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>342.45499</v>
+        <v>342.3760799999999</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>38.55712</v>
@@ -1901,145 +1927,165 @@
         <v>70.82795000000002</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>76.63412</v>
+        <v>163.82183</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>60.1405</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>19.3432</v>
+        <v>19.91433</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>348.17528</v>
+        <v>261.17528</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>112.33193</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>73.29392999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>76.91088999999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2804.343</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>54.07744</v>
+        <v>39.01744</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>280.86532</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>58.19396</v>
+        <v>44.24096</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>17.5664</v>
+        <v>72.75326000000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>79.69271999999999</v>
+        <v>144.92316</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>27.63911</v>
+        <v>73.92597000000001</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>83.41148</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>719.1644699999999</v>
+        <v>718.8025</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>450.23592</v>
+        <v>369.528</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2610.86325</v>
+        <v>2737.26067</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2860.4096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2849.9348</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2279.359</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>76.59130999999999</v>
+        <v>72.83623000000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>32.44457</v>
+        <v>31.0251</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>190.11792</v>
+        <v>189.97192</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>152.08135</v>
+        <v>143.71552</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>89.53062</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>111.14287</v>
+        <v>110.94583</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>95.40752999999999</v>
+        <v>116.38916</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>144.01028</v>
+        <v>188.51538</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>138.76755</v>
+        <v>328.8273</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>619.3403000000001</v>
+        <v>673.40927</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>320.89945</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>479.32467</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>267.244</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>11406.83813</v>
+        <v>15667.70483</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>9790.65166</v>
+        <v>11108.92729</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>13855.97922</v>
+        <v>14275.03965</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>6269.84989</v>
+        <v>6686.60516</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>17754.05349</v>
+        <v>24648.95798</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>13987.72906</v>
+        <v>22027.81659</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>28000.93215</v>
+        <v>64269.79517</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>21898.62931</v>
+        <v>70364.22459999999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>15072.34043</v>
+        <v>25279.45813</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>137125.51281</v>
+        <v>286084.42627</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>62324.05420000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>120171.39451</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>214097.693</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>181.2854</v>
@@ -2048,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>0</v>
+        <v>104.02888</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>6.60392</v>
@@ -2057,55 +2103,60 @@
         <v>501.26179</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>774.59042</v>
+        <v>886.31953</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>919.5233899999999</v>
+        <v>999.0605899999999</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>814.7128300000001</v>
+        <v>1228.32764</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>644.48442</v>
+        <v>576.0540900000001</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>6108.87374</v>
+        <v>11183.06433</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>5875.79771</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>7595.20917</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>9362.498</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>3.57132</v>
+        <v>3.20916</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>1.3488</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>21.00211</v>
+        <v>16.04211</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>37.79735000000001</v>
+        <v>2.51484</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>6.59108</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>37.53669</v>
+        <v>21.50199</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>48.86036</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>9.161440000000001</v>
+        <v>1238.53878</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>0</v>
+        <v>982.14665</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>1639.73355</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>3.58176</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>32.474</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1215.02228</v>
+        <v>2131.87337</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2693.08853</v>
+        <v>3639.1678</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2148.13553</v>
+        <v>2265.17709</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3610.51828</v>
+        <v>2283.945639999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5615.28153</v>
+        <v>4685.16325</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6069.71704</v>
+        <v>4710.08968</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>7884.228</v>
+        <v>7565.157149999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>9635.701050000001</v>
+        <v>13401.68389</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>8165.85683</v>
+        <v>9973.409740000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>33738.71353</v>
+        <v>37864.16878</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>22081.63742</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>26582.50543</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>40077.537</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>14249.29522</v>
+        <v>18094.5079</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>11843.46441</v>
+        <v>12299.20026</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>15919.09019</v>
+        <v>14646.18416</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>8743.888969999998</v>
+        <v>9197.88061</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>22061.56398</v>
+        <v>27315.75256</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>20187.06419</v>
+        <v>30535.18106</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>36770.20017</v>
+        <v>78149.98197999998</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>26760.76962</v>
+        <v>64136.27091000001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>20278.9312</v>
+        <v>32600.02436</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>187230.4361</v>
+        <v>305145.71937</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>135550.49256</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>191602.15845</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>254864.756</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>435.88299</v>
+        <v>432.16479</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>265.74187</v>
+        <v>232.41747</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>377.71688</v>
+        <v>279.20374</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>814.80406</v>
+        <v>866.1137000000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>249.7555</v>
+        <v>338.73919</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>362.04895</v>
+        <v>382.8275</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>409.74233</v>
+        <v>589.47777</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>472.52021</v>
+        <v>665.8768699999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>344.95916</v>
+        <v>149.36146</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>786.20751</v>
+        <v>1408.16293</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1245.87556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1243.37052</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2185.05</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1668.68728</v>
+        <v>1587.40984</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>699.1041100000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>760.03676</v>
+        <v>593.32735</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1614.58881</v>
+        <v>1489.1471</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3342.52132</v>
+        <v>2982.82413</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3372.54801</v>
+        <v>3405.17501</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>6662.46755</v>
+        <v>10307.06661</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4473.604859999999</v>
+        <v>5209.42604</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5056.586740000001</v>
+        <v>5811.15608</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>17256.20548</v>
+        <v>29757.98723</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>59898.23227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>68521.1204</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>34253.412</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>37.33349</v>
@@ -2285,7 +2361,7 @@
         <v>4.57247</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>4.745649999999999</v>
+        <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>171.63486</v>
@@ -2294,7 +2370,7 @@
         <v>9.42727</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0.20953</v>
+        <v>0.1414</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>5.37985</v>
@@ -2303,58 +2379,68 @@
         <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>22.55823</v>
+        <v>4.47157</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>61.05716</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>18.8388</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>25.938</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>10950.26052</v>
+        <v>14966.66453</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>9030.61952</v>
+        <v>9448.642689999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>12885.48042</v>
+        <v>12287.24375</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5375.12687</v>
+        <v>5931.39178</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>15725.62036</v>
+        <v>21399.22835</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>14053.05756</v>
+        <v>23752.65046</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>27295.26581</v>
+        <v>64992.88448</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>19435.66928</v>
+        <v>55388.57362</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>13226.92487</v>
+        <v>25054.32902</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>150246.16913</v>
+        <v>250580.2585</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>65470.28513</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>111690.12584</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>202816.556</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>63.75547</v>
+        <v>60.97924</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0.00015</v>
@@ -2369,28 +2455,33 @@
         <v>836.34729</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1073.10232</v>
+        <v>1154.67064</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>758.4649000000001</v>
+        <v>754.8192299999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>808.4816500000001</v>
+        <v>1221.71165</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>518.7920799999999</v>
+        <v>518.7626</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>7191.09161</v>
+        <v>13267.40878</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>5010.08654</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>5990.56186</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>8731.924000000001</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.45456</v>
@@ -2402,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>2.88685</v>
+        <v>0.01095</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0.28096</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1092.92091</v>
+        <v>1009.50145</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1618.94857</v>
+        <v>1689.98565</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1891.11436</v>
+        <v>1481.66755</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>815.40018</v>
+        <v>794.88053</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1735.68465</v>
+        <v>1586.97874</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1307.6653</v>
+        <v>1821.2154</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1644.04632</v>
+        <v>1505.58876</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1565.11377</v>
+        <v>1645.30288</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1110.28484</v>
+        <v>1045.03169</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>11728.20414</v>
+        <v>10127.43036</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3864.67494</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>4137.860070000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6851.874</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>14150.88027</v>
+        <v>15984.41773</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>10470.05539</v>
+        <v>12995.6595</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>14230.05339</v>
+        <v>15845.117</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>16556.11674</v>
+        <v>18736.47421</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>21728.8706</v>
+        <v>29752.80826</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>27571.36966</v>
+        <v>36412.92</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>32140.11793</v>
+        <v>50328.09323000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>33519.14597999999</v>
+        <v>81657.87679000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>36227.42247999999</v>
+        <v>49180.57333</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>128583.47187</v>
+        <v>219827.61605</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>110949.90586</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>178546.28191</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>130654.416</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>13190.31095</v>
+        <v>15242.23763</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>10119.97386</v>
+        <v>12589.40427</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>14040.91056</v>
+        <v>15601.9396</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>16222.20358</v>
+        <v>18352.42565</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>20836.2028</v>
+        <v>28607.256</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>26852.50447</v>
+        <v>35608.30667000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>30825.29789</v>
+        <v>48054.57565999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>32311.46369</v>
+        <v>78461.90074000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>34979.08713</v>
+        <v>47828.96848</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>126024.96418</v>
+        <v>216629.22179</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>107977.73186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>173127.14474</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>122410.216</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>960.5693200000001</v>
+        <v>742.1800999999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>350.08153</v>
+        <v>406.25523</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>189.14283</v>
+        <v>243.1774</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>333.91316</v>
+        <v>384.04856</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>892.6678000000001</v>
+        <v>1145.55226</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>718.8651900000001</v>
+        <v>804.6133299999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1314.82004</v>
+        <v>2273.51757</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1207.68229</v>
+        <v>3195.97605</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1248.33535</v>
+        <v>1351.60485</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2558.50769</v>
+        <v>3198.39426</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2972.174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5419.13717</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>8244.200000000001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>43032.54070000001</v>
+        <v>43272.80054</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>65608.18257999999</v>
+        <v>69460.67044</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>55804.56147</v>
+        <v>63646.09792</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>64031.57866</v>
+        <v>71772.28464</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>79186.51362</v>
+        <v>83792.78885</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>75682.81570000001</v>
+        <v>79191.51231000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>87977.48265999999</v>
+        <v>103440.15721</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>89543.85597</v>
+        <v>84987.39665</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>98543.25536000001</v>
+        <v>110771.06465</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>149320.8529</v>
+        <v>129989.94361</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>176442.65994</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>162304.62827</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>261123.568</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>10007.89121</v>
+        <v>7108.420349999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3890.19475</v>
+        <v>4227.08559</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3987.99026</v>
+        <v>3925.07544</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6181.21646</v>
+        <v>5238.8903</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>7260.045480000001</v>
+        <v>9626.82014</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>7172.47716</v>
+        <v>9342.255859999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>12105.80816</v>
+        <v>10919.46604</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>12241.22711</v>
+        <v>27119.09823</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>14207.78512</v>
+        <v>14297.22239</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>32644.19195</v>
+        <v>40715.02331</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>30559.21976</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>39046.8895</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>90332.899</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>331.83327</v>
+        <v>332.44848</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>91.41461</v>
+        <v>94.28400999999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>17.44826</v>
+        <v>18.34239</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>94.3493</v>
+        <v>93.75944</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>96.75964999999999</v>
+        <v>96.19467</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>61.27305</v>
+        <v>83.96298</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>70.31012</v>
+        <v>103.59277</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>109.90108</v>
+        <v>80.41105</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>98.92403</v>
+        <v>98.32554999999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>196.89407</v>
+        <v>132.26868</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>226.70643</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>218.06935</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>567.852</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>9676.057940000001</v>
+        <v>6775.97187</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3798.78014</v>
+        <v>4132.80158</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3970.542</v>
+        <v>3906.73305</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6086.86716</v>
+        <v>5145.130859999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>7163.28583</v>
+        <v>9530.625470000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>7111.20411</v>
+        <v>9258.292879999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>12035.49804</v>
+        <v>10815.87327</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>12131.32603</v>
+        <v>27038.68718</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>14108.86109</v>
+        <v>14198.89684</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>32447.29788</v>
+        <v>40582.75463</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>30332.51333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>38828.82015000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>89765.04700000001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>10594.86413</v>
+        <v>5753.62944</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5422.59127</v>
+        <v>5894.816859999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>44895.82727</v>
+        <v>47857.04988000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5061.35409</v>
+        <v>4719.46077</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>8419.87077</v>
+        <v>10899.45971</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>36041.32782</v>
+        <v>36513.20568</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>8805.498310000001</v>
+        <v>14782.76339</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>40077.50868</v>
+        <v>60528.02273</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>13894.9643</v>
+        <v>14543.65671</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>54459.8885</v>
+        <v>119423.01804</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>27879.37818</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>30140.79957</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>29979.229</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1528.72177</v>
+        <v>1166.56426</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>787.78574</v>
+        <v>753.91437</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>119.57812</v>
+        <v>56.81648999999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>304.34989</v>
+        <v>444.7502900000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>968.81901</v>
+        <v>1206.7309</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1875.61539</v>
+        <v>1846.6662</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1355.57402</v>
+        <v>2539.6651</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3018.12752</v>
+        <v>3958.85668</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1712.97388</v>
+        <v>2197.46315</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>4093.22353</v>
+        <v>4133.4105</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>7778.493439999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>8021.312650000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>8184.28</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>265.60571</v>
+        <v>106.05556</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>450.14253</v>
+        <v>596.43614</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>212.50151</v>
+        <v>127.86656</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>452.65016</v>
+        <v>459.40372</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>185.66674</v>
+        <v>362.08897</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>782.10909</v>
+        <v>449.66126</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>328.22853</v>
+        <v>351.56331</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1568.12306</v>
+        <v>5346.065890000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1409.54779</v>
+        <v>1082.69181</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>585.0995300000001</v>
+        <v>824.2085</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>908.4048600000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>980.23478</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>865.633</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>8800.53665</v>
+        <v>4481.00962</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4184.663</v>
+        <v>4544.46635</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>44563.74764</v>
+        <v>47672.36683</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4304.35404</v>
+        <v>3815.30676</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7265.385020000001</v>
+        <v>9330.63984</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>33383.60334</v>
+        <v>34216.87822</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>7121.69576</v>
+        <v>11891.53498</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>35491.2581</v>
+        <v>51223.10015999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>10772.44263</v>
+        <v>11263.50175</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>49781.56544</v>
+        <v>114465.39904</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>19192.47988</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>21139.25214</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>20929.316</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>42445.56778</v>
+        <v>44627.59145</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>64075.78606000001</v>
+        <v>67792.93917</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>14896.72446</v>
+        <v>19714.12348</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>65151.44103</v>
+        <v>72291.71417000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>78026.68833</v>
+        <v>82520.14928</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>46813.96504</v>
+        <v>52020.56249</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>91277.79251</v>
+        <v>99576.85986</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>61707.5744</v>
+        <v>51578.47215000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>98856.07618</v>
+        <v>110524.63033</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>127505.15635</v>
+        <v>51281.94888</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>179122.50152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>171210.7182</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>321477.238</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>9023.032140000001</v>
+        <v>9281.875779999998</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>11508.74017</v>
+        <v>11924.06442</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>10733.84037</v>
+        <v>11245.31516</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>12351.77954</v>
+        <v>12859.46585</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>15685.27621</v>
+        <v>16875.70194</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>14709.406</v>
+        <v>15772.31861</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>17915.54525</v>
+        <v>21035.77697</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>17910.29201</v>
+        <v>20628.30657</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>18425.41826</v>
+        <v>19919.96791</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>34757.01905</v>
+        <v>38159.54159</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>39362.49036</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>43026.32934</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>48345.002</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>33422.53564</v>
+        <v>35345.71567000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>52567.04589</v>
+        <v>55868.87475</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>4162.88409</v>
+        <v>8468.80832</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>52799.66148999999</v>
+        <v>59432.24832</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>62341.41212000001</v>
+        <v>65644.44734</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>32104.55904</v>
+        <v>36248.24388</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>73362.24726</v>
+        <v>78541.08289000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>43797.28239</v>
+        <v>30950.16558</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>80430.65792</v>
+        <v>90604.66242000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>92748.1373</v>
+        <v>13122.40729</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>139760.01116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>128184.38886</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>273132.236</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>751</v>
+        <v>656</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>802</v>
+        <v>698</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>831</v>
+        <v>742</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>879</v>
+        <v>809</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>957</v>
+        <v>862</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>975</v>
+        <v>877</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1011</v>
+        <v>885</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1047</v>
+        <v>902</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1071</v>
+        <v>903</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>941</v>
+        <v>860</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>862</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>